--- a/文档/其他文档/Others/Jobs/业务运营支撑中心高风险人员信息汇总-APE.xlsx
+++ b/文档/其他文档/Others/Jobs/业务运营支撑中心高风险人员信息汇总-APE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eason\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592" tabRatio="590"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="供应商" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>员工身份</t>
   </si>
@@ -45,46 +40,7 @@
     <t>最新情况</t>
   </si>
   <si>
-    <t>居家</t>
-  </si>
-  <si>
-    <t>密接</t>
-  </si>
-  <si>
-    <t>业务运营支撑中心</t>
-  </si>
-  <si>
     <t>云网运营部业务运营支撑中心高风险人员信息汇总</t>
-  </si>
-  <si>
-    <t>密接</t>
-  </si>
-  <si>
-    <t>居家</t>
-  </si>
-  <si>
-    <t>外包</t>
-  </si>
-  <si>
-    <t>沈健</t>
-  </si>
-  <si>
-    <t>同小区有阳性</t>
-  </si>
-  <si>
-    <t>本人4.1，4.3核酸阴性</t>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人4.3核酸阴性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注：
@@ -97,16 +53,12 @@
 7、 如有信息更新，请将底色标黄。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>同住人抗原自测阳性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +77,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -132,12 +85,14 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,18 +106,21 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -651,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,29 +617,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -691,9 +649,9 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="103.5" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -703,7 +661,7 @@
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -713,7 +671,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -739,69 +697,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>44635</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8">
-        <v>44644</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -811,7 +737,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -821,7 +747,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -831,7 +757,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -841,7 +767,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -851,7 +777,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -859,9 +785,9 @@
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -871,7 +797,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -879,9 +805,9 @@
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -891,17 +817,17 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -911,17 +837,17 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -931,7 +857,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.45">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -941,7 +867,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.45">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -949,9 +875,9 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -959,9 +885,9 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -969,9 +895,9 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -981,7 +907,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -991,7 +917,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1001,7 +927,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1011,7 +937,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1021,7 +947,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1031,17 +957,17 @@
       <c r="G30" s="7"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="9"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1049,59 +975,59 @@
       <c r="E32" s="8"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="9"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="9"/>
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="9"/>
       <c r="B38" s="15"/>
       <c r="C38" s="7"/>
@@ -1111,17 +1037,17 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="9"/>
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="9"/>
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
@@ -1131,7 +1057,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="9"/>
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
@@ -1141,7 +1067,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
@@ -1151,7 +1077,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -1161,47 +1087,47 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="9"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="9"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="9"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="9"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="9"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
@@ -1211,7 +1137,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="9"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -1221,7 +1147,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="9"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -1231,7 +1157,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="B51" s="15"/>
       <c r="C51" s="7"/>
@@ -1241,7 +1167,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="B52" s="15"/>
       <c r="C52" s="7"/>
@@ -1251,7 +1177,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="B53" s="15"/>
       <c r="C53" s="7"/>
@@ -1261,7 +1187,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="B54" s="15"/>
       <c r="C54" s="7"/>
@@ -1271,7 +1197,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
@@ -1281,7 +1207,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="9"/>
       <c r="B56" s="15"/>
       <c r="C56" s="7"/>
@@ -1291,7 +1217,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="9"/>
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
@@ -1301,7 +1227,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="9"/>
       <c r="B58" s="15"/>
       <c r="C58" s="7"/>
@@ -1311,27 +1237,27 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="9"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="9"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1341,7 +1267,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1351,7 +1277,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1361,7 +1287,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1371,7 +1297,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1381,7 +1307,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1391,7 +1317,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1401,7 +1327,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1411,7 +1337,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1421,7 +1347,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1431,7 +1357,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1441,7 +1367,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1451,7 +1377,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1461,34 +1387,14 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="H22:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>